--- a/ieasyreports/templates/example2.xlsx
+++ b/ieasyreports/templates/example2.xlsx
@@ -67,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,12 +89,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,8 +154,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -179,10 +186,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -207,30 +214,32 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
